--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Ltbr</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Ltbr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H2">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I2">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J2">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N2">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O2">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P2">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q2">
-        <v>1.584069902701333</v>
+        <v>0.6402360724633335</v>
       </c>
       <c r="R2">
-        <v>14.256629124312</v>
+        <v>5.762124652170001</v>
       </c>
       <c r="S2">
-        <v>0.05636760395208158</v>
+        <v>0.01694017273106529</v>
       </c>
       <c r="T2">
-        <v>0.06127909304312446</v>
+        <v>0.01738897303832905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H3">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I3">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J3">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N3">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O3">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P3">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q3">
-        <v>3.377060008006222</v>
+        <v>1.454575644595111</v>
       </c>
       <c r="R3">
-        <v>30.393540072056</v>
+        <v>13.091180801356</v>
       </c>
       <c r="S3">
-        <v>0.1201694323773784</v>
+        <v>0.03848699523448518</v>
       </c>
       <c r="T3">
-        <v>0.1306401782458749</v>
+        <v>0.03950664099377665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H4">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I4">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J4">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N4">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O4">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P4">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q4">
-        <v>1.886472118011555</v>
+        <v>1.257081918595556</v>
       </c>
       <c r="R4">
-        <v>16.978249062104</v>
+        <v>11.31373726736</v>
       </c>
       <c r="S4">
-        <v>0.06712829593781437</v>
+        <v>0.03326145738114007</v>
       </c>
       <c r="T4">
-        <v>0.07297739843788074</v>
+        <v>0.03414266163623726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H5">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I5">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J5">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N5">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O5">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P5">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q5">
-        <v>1.491210158471333</v>
+        <v>0.375056601112</v>
       </c>
       <c r="R5">
-        <v>8.947260950827999</v>
+        <v>2.250339606672</v>
       </c>
       <c r="S5">
-        <v>0.05306327926481738</v>
+        <v>0.009923720140163459</v>
       </c>
       <c r="T5">
-        <v>0.03845790133881752</v>
+        <v>0.00679108785554765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H6">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I6">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J6">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N6">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O6">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P6">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q6">
-        <v>2.132076692768889</v>
+        <v>1.116962909035333</v>
       </c>
       <c r="R6">
-        <v>19.18869023492</v>
+        <v>10.052666181318</v>
       </c>
       <c r="S6">
-        <v>0.07586789851162262</v>
+        <v>0.02955401207003274</v>
       </c>
       <c r="T6">
-        <v>0.08247851045491106</v>
+        <v>0.03033699403299609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.0837</v>
       </c>
       <c r="I7">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J7">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N7">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O7">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P7">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q7">
-        <v>0.2697109181999999</v>
+        <v>0.2530852245</v>
       </c>
       <c r="R7">
-        <v>2.4273982638</v>
+        <v>2.2777670205</v>
       </c>
       <c r="S7">
-        <v>0.009597403620082733</v>
+        <v>0.006696447768422127</v>
       </c>
       <c r="T7">
-        <v>0.01043365600403085</v>
+        <v>0.006873858463327989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.0837</v>
       </c>
       <c r="I8">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J8">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N8">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O8">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P8">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q8">
-        <v>0.5749935366</v>
+        <v>0.5749935365999999</v>
       </c>
       <c r="R8">
-        <v>5.1749418294</v>
+        <v>5.174941829399999</v>
       </c>
       <c r="S8">
-        <v>0.02046059197943516</v>
+        <v>0.01521390350870608</v>
       </c>
       <c r="T8">
-        <v>0.0222433886083056</v>
+        <v>0.01561696932614413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.0837</v>
       </c>
       <c r="I9">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J9">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N9">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O9">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P9">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q9">
-        <v>0.3211992894</v>
+        <v>0.4969242959999999</v>
       </c>
       <c r="R9">
-        <v>2.8907936046</v>
+        <v>4.472318663999999</v>
       </c>
       <c r="S9">
-        <v>0.01142956778846323</v>
+        <v>0.01314824917020763</v>
       </c>
       <c r="T9">
-        <v>0.01242546247925218</v>
+        <v>0.01349658908156806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.0837</v>
       </c>
       <c r="I10">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J10">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N10">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O10">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P10">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q10">
-        <v>0.25390019745</v>
+        <v>0.1482598188</v>
       </c>
       <c r="R10">
-        <v>1.5234011847</v>
+        <v>0.8895589127999999</v>
       </c>
       <c r="S10">
-        <v>0.009034794328716763</v>
+        <v>0.003922845099753853</v>
       </c>
       <c r="T10">
-        <v>0.006548016513948726</v>
+        <v>0.002684516022203564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.0837</v>
       </c>
       <c r="I11">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J11">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N11">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O11">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P11">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q11">
-        <v>0.363017037</v>
+        <v>0.4415352722999999</v>
       </c>
       <c r="R11">
-        <v>3.267153333</v>
+        <v>3.9738174507</v>
       </c>
       <c r="S11">
-        <v>0.01291761211710379</v>
+        <v>0.01168269658852799</v>
       </c>
       <c r="T11">
-        <v>0.01404316485568414</v>
+        <v>0.01199220924237394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H12">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I12">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J12">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N12">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O12">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P12">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q12">
-        <v>1.960099124785333</v>
+        <v>1.166450750295</v>
       </c>
       <c r="R12">
-        <v>17.640892123068</v>
+        <v>10.498056752655</v>
       </c>
       <c r="S12">
-        <v>0.06974824216046792</v>
+        <v>0.03086342373095459</v>
       </c>
       <c r="T12">
-        <v>0.07582562893003457</v>
+        <v>0.03168109627028254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H13">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I13">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J13">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N13">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O13">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P13">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q13">
-        <v>4.178712287098223</v>
+        <v>2.650101931106</v>
       </c>
       <c r="R13">
-        <v>37.608410583884</v>
+        <v>23.850917379954</v>
       </c>
       <c r="S13">
-        <v>0.1486954577112877</v>
+        <v>0.07011973613910417</v>
       </c>
       <c r="T13">
-        <v>0.1616517671378417</v>
+        <v>0.07197743615338881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H14">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I14">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J14">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N14">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O14">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P14">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q14">
-        <v>2.334286095039556</v>
+        <v>2.29028667736</v>
       </c>
       <c r="R14">
-        <v>21.008574855356</v>
+        <v>20.61258009624</v>
       </c>
       <c r="S14">
-        <v>0.08306332560934281</v>
+        <v>0.06059929077232361</v>
       </c>
       <c r="T14">
-        <v>0.09030089806218007</v>
+        <v>0.06220476320465074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H15">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I15">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J15">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N15">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O15">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P15">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q15">
-        <v>1.845196175690333</v>
+        <v>0.683318345508</v>
       </c>
       <c r="R15">
-        <v>11.071177054142</v>
+        <v>4.099910073048</v>
       </c>
       <c r="S15">
-        <v>0.06565953122891864</v>
+        <v>0.01808009779685478</v>
       </c>
       <c r="T15">
-        <v>0.04758710371729701</v>
+        <v>0.01237273228599047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H16">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I16">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J16">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N16">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O16">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P16">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q16">
-        <v>2.638192703708889</v>
+        <v>2.035002836193</v>
       </c>
       <c r="R16">
-        <v>23.74373433338</v>
+        <v>18.315025525737</v>
       </c>
       <c r="S16">
-        <v>0.09387754998585573</v>
+        <v>0.05384466923377155</v>
       </c>
       <c r="T16">
-        <v>0.1020574002956423</v>
+        <v>0.05527118975869615</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H17">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I17">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J17">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N17">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O17">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P17">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q17">
-        <v>0.4375552127249999</v>
+        <v>2.935579967635</v>
       </c>
       <c r="R17">
-        <v>2.62533127635</v>
+        <v>26.420219708715</v>
       </c>
       <c r="S17">
-        <v>0.01556998141053744</v>
+        <v>0.0776732737445686</v>
       </c>
       <c r="T17">
-        <v>0.01128442902944914</v>
+        <v>0.07973109155293238</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H18">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I18">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J18">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N18">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O18">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P18">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q18">
-        <v>0.932818815425</v>
+        <v>6.669451015551332</v>
       </c>
       <c r="R18">
-        <v>5.59691289255</v>
+        <v>60.02505913996199</v>
       </c>
       <c r="S18">
-        <v>0.03319346037523957</v>
+        <v>0.1764687387733669</v>
       </c>
       <c r="T18">
-        <v>0.02405714162206529</v>
+        <v>0.1811439699791679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H19">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I19">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J19">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N19">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O19">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P19">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q19">
-        <v>0.5210854063250001</v>
+        <v>5.763912182746665</v>
       </c>
       <c r="R19">
-        <v>3.12651243795</v>
+        <v>51.87520964471999</v>
       </c>
       <c r="S19">
-        <v>0.01854232301166011</v>
+        <v>0.1525088513159528</v>
       </c>
       <c r="T19">
-        <v>0.01343864983195105</v>
+        <v>0.1565493071257997</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H20">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I20">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J20">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N20">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O20">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P20">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q20">
-        <v>0.41190529344375</v>
+        <v>1.719691676724</v>
       </c>
       <c r="R20">
-        <v>1.647621173775</v>
+        <v>10.318150060344</v>
       </c>
       <c r="S20">
-        <v>0.01465725370263593</v>
+        <v>0.04550176927050333</v>
       </c>
       <c r="T20">
-        <v>0.007081949760157807</v>
+        <v>0.03113817281567923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H21">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I21">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J21">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N21">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O21">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P21">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q21">
-        <v>0.588926832875</v>
+        <v>5.121445169029</v>
       </c>
       <c r="R21">
-        <v>3.53356099725</v>
+        <v>46.093006521261</v>
       </c>
       <c r="S21">
-        <v>0.020956394926538</v>
+        <v>0.1355096495300955</v>
       </c>
       <c r="T21">
-        <v>0.01518826163155086</v>
+        <v>0.1390997411609078</v>
       </c>
     </row>
   </sheetData>
